--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/TuS Langenholthausen 2.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/TuS Langenholthausen 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
   <si>
     <t>firstName</t>
   </si>
@@ -58,6 +58,12 @@
     <t>Bonner</t>
   </si>
   <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Collard</t>
+  </si>
+  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -76,6 +82,18 @@
     <t>Ollesch</t>
   </si>
   <si>
+    <t>Benedikt</t>
+  </si>
+  <si>
+    <t>Schulte</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Schwartpaul</t>
+  </si>
+  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -100,7 +118,16 @@
     <t>Wulf</t>
   </si>
   <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>Schweitzer</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Florian</t>
   </si>
 </sst>
 </file>
@@ -188,11 +215,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -246,26 +273,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" s="3">
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="3">
@@ -282,26 +309,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="4">
@@ -318,26 +345,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" s="3">
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="5">
@@ -354,26 +381,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
@@ -390,26 +417,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="7">
@@ -426,26 +453,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="8">
@@ -462,26 +489,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,26 +525,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,26 +561,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
@@ -570,26 +597,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="12">
@@ -606,26 +633,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="13">
@@ -642,26 +669,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>1.0</v>
@@ -678,26 +705,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="15">
@@ -705,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>2.0</v>
@@ -714,26 +741,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="16">
@@ -741,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>3.0</v>
@@ -750,26 +777,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" s="3">
         <v>0.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="17">
@@ -777,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>4.0</v>
@@ -786,35 +813,35 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I17" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C18" s="3">
         <v>1.0</v>
       </c>
@@ -822,34 +849,34 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I18" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>2.0</v>
@@ -858,34 +885,34 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I19" s="3">
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>3.0</v>
@@ -894,34 +921,34 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I20" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>4.0</v>
@@ -930,34 +957,34 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I21" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>1.0</v>
@@ -966,34 +993,34 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3">
         <v>2.0</v>
@@ -1002,34 +1029,34 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I23" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <v>3.0</v>
@@ -1038,34 +1065,34 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I24" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
         <v>4.0</v>
@@ -1074,31 +1101,31 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -1110,31 +1137,31 @@
         <v>12</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F26" s="8">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G26" s="8">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -1146,31 +1173,31 @@
         <v>12</v>
       </c>
       <c r="E27" s="8">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H27" s="8">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I27" s="8">
         <v>0.0</v>
       </c>
       <c r="J27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -1182,31 +1209,31 @@
         <v>12</v>
       </c>
       <c r="E28" s="8">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F28" s="8">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -1218,26 +1245,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="8">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F29" s="8">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H29" s="8">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I29" s="8">
         <v>0.0</v>
       </c>
       <c r="J29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="6">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
@@ -1254,26 +1281,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I30" s="3">
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="6">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="31">
@@ -1290,26 +1317,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I31" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,26 +1353,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="6">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="33">
@@ -1362,26 +1389,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I33" s="3">
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="34">
@@ -1398,26 +1425,26 @@
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I34" s="3">
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="6">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="35">
@@ -1434,26 +1461,26 @@
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="6">
-        <v>0.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="36">
@@ -1470,26 +1497,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="37">
@@ -1506,26 +1533,26 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I37" s="3">
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="38">
@@ -1557,7 +1584,7 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="6">
@@ -1593,7 +1620,7 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6">
@@ -1629,7 +1656,7 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6">
@@ -1665,7 +1692,7 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6">
@@ -1673,141 +1700,161 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C42" s="3">
         <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I42" s="3">
         <v>0.0</v>
       </c>
       <c r="J42" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C43" s="3">
         <v>2.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C44" s="3">
         <v>3.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F44" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I44" s="3">
         <v>0.0</v>
       </c>
       <c r="J44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="6">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C45" s="3">
         <v>4.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I45" s="3">
         <v>0.0</v>
       </c>
       <c r="J45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="6">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C46" s="3">
         <v>1.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
         <v>0.0</v>
@@ -1825,7 +1872,7 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6">
@@ -1833,13 +1880,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C47" s="3">
         <v>2.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3">
         <v>0.0</v>
@@ -1857,7 +1908,7 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6">
@@ -1865,13 +1916,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C48" s="3">
         <v>3.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <v>0.0</v>
@@ -1889,7 +1944,7 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6">
@@ -1897,13 +1952,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C49" s="3">
         <v>4.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
         <v>0.0</v>
@@ -1921,11 +1980,431 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="6">
+        <v>79.0</v>
       </c>
     </row>
   </sheetData>
